--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N2">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q2">
-        <v>1056.611353274298</v>
+        <v>2166.720033351389</v>
       </c>
       <c r="R2">
-        <v>1056.611353274298</v>
+        <v>19500.4803001625</v>
       </c>
       <c r="S2">
-        <v>0.2121180950048821</v>
+        <v>0.3136656525231462</v>
       </c>
       <c r="T2">
-        <v>0.2121180950048821</v>
+        <v>0.3136656525231462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N3">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q3">
-        <v>2543.936056367597</v>
+        <v>2970.5577025625</v>
       </c>
       <c r="R3">
-        <v>2543.936056367597</v>
+        <v>26735.0193230625</v>
       </c>
       <c r="S3">
-        <v>0.5107032670231421</v>
+        <v>0.430033371081503</v>
       </c>
       <c r="T3">
-        <v>0.5107032670231421</v>
+        <v>0.4300333710815031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N4">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q4">
-        <v>131.6757756217356</v>
+        <v>164.4527466534722</v>
       </c>
       <c r="R4">
-        <v>131.6757756217356</v>
+        <v>1480.07471988125</v>
       </c>
       <c r="S4">
-        <v>0.02643433140919694</v>
+        <v>0.02380703427036596</v>
       </c>
       <c r="T4">
-        <v>0.02643433140919694</v>
+        <v>0.02380703427036597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N5">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O5">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P5">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q5">
-        <v>240.2643308832692</v>
+        <v>437.5265440761001</v>
       </c>
       <c r="R5">
-        <v>240.2643308832692</v>
+        <v>3937.7388966849</v>
       </c>
       <c r="S5">
-        <v>0.04823382978675159</v>
+        <v>0.06333861635624177</v>
       </c>
       <c r="T5">
-        <v>0.04823382978675159</v>
+        <v>0.06333861635624177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N6">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O6">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P6">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q6">
-        <v>578.4691717526061</v>
+        <v>599.8457694465001</v>
       </c>
       <c r="R6">
-        <v>578.4691717526061</v>
+        <v>5398.6119250185</v>
       </c>
       <c r="S6">
-        <v>0.1161295289426639</v>
+        <v>0.08683679099770969</v>
       </c>
       <c r="T6">
-        <v>0.1161295289426639</v>
+        <v>0.0868367909977097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N7">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O7">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P7">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q7">
-        <v>29.94193846701815</v>
+        <v>33.20800140285</v>
       </c>
       <c r="R7">
-        <v>29.94193846701815</v>
+        <v>298.87201262565</v>
       </c>
       <c r="S7">
-        <v>0.006010939527287574</v>
+        <v>0.00480736286584435</v>
       </c>
       <c r="T7">
-        <v>0.006010939527287574</v>
+        <v>0.004807362865844351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N8">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O8">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P8">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q8">
-        <v>113.3389628971363</v>
+        <v>218.8191314613251</v>
       </c>
       <c r="R8">
-        <v>113.3389628971363</v>
+        <v>1969.372183151926</v>
       </c>
       <c r="S8">
-        <v>0.02275315784282362</v>
+        <v>0.03167739467853693</v>
       </c>
       <c r="T8">
-        <v>0.02275315784282362</v>
+        <v>0.03167739467853693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N9">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O9">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P9">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q9">
-        <v>272.8790235045716</v>
+        <v>299.99946759391</v>
       </c>
       <c r="R9">
-        <v>272.8790235045716</v>
+        <v>2699.99520834519</v>
       </c>
       <c r="S9">
-        <v>0.05478133322456908</v>
+        <v>0.04342948203321457</v>
       </c>
       <c r="T9">
-        <v>0.05478133322456908</v>
+        <v>0.04342948203321458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N10">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O10">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P10">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q10">
-        <v>14.1243947468443</v>
+        <v>16.60824039803678</v>
       </c>
       <c r="R10">
-        <v>14.1243947468443</v>
+        <v>149.474163582331</v>
       </c>
       <c r="S10">
-        <v>0.002835517238683125</v>
+        <v>0.002404295193437499</v>
       </c>
       <c r="T10">
-        <v>0.002835517238683125</v>
+        <v>0.002404295193437499</v>
       </c>
     </row>
   </sheetData>
